--- a/doors-detector/results/house13.xlsx
+++ b/doors-detector/results/house13.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6834312296916634</v>
+        <v>0.7030506909545378</v>
       </c>
       <c r="F2" t="n">
         <v>2300</v>
       </c>
       <c r="G2" t="n">
-        <v>1780</v>
+        <v>1815</v>
       </c>
       <c r="H2" t="n">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6568011529935975</v>
+        <v>0.6319875142063329</v>
       </c>
       <c r="F3" t="n">
         <v>99</v>
       </c>
       <c r="G3" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H3" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6393400985300224</v>
+        <v>0.6080329207082972</v>
       </c>
       <c r="F4" t="n">
         <v>63</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.740066185757145</v>
+        <v>0.7398132304234319</v>
       </c>
       <c r="F5" t="n">
         <v>2300</v>
       </c>
       <c r="G5" t="n">
-        <v>1865</v>
+        <v>1870</v>
       </c>
       <c r="H5" t="n">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.739576641991084</v>
+        <v>0.7359460670421607</v>
       </c>
       <c r="F6" t="n">
         <v>99</v>
@@ -632,7 +632,7 @@
         <v>84</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6664555920759312</v>
+        <v>0.6342879755650837</v>
       </c>
       <c r="F7" t="n">
         <v>63</v>
       </c>
       <c r="G7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7582392231518744</v>
+        <v>0.778949245864673</v>
       </c>
       <c r="F8" t="n">
         <v>2300</v>
       </c>
       <c r="G8" t="n">
-        <v>1908</v>
+        <v>1942</v>
       </c>
       <c r="H8" t="n">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8429173977266484</v>
+        <v>0.8297543905085452</v>
       </c>
       <c r="F9" t="n">
         <v>99</v>
       </c>
       <c r="G9" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.755863294457585</v>
+        <v>0.6561464584459039</v>
       </c>
       <c r="F10" t="n">
         <v>63</v>
       </c>
       <c r="G10" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7863619227632965</v>
+        <v>0.791760043398325</v>
       </c>
       <c r="F11" t="n">
         <v>2300</v>
       </c>
       <c r="G11" t="n">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="H11" t="n">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.8296198752570038</v>
+        <v>0.7801129516790993</v>
       </c>
       <c r="F12" t="n">
         <v>99</v>
       </c>
       <c r="G12" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.726983934531346</v>
+        <v>0.745380616953694</v>
       </c>
       <c r="F13" t="n">
         <v>63</v>
       </c>
       <c r="G13" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H13" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
